--- a/Code/Results/Cases/Case_3_248/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_248/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.001509566227004</v>
+        <v>1.02703937269998</v>
       </c>
       <c r="D2">
-        <v>1.017174739883621</v>
+        <v>1.031234967875891</v>
       </c>
       <c r="E2">
-        <v>1.007762883157359</v>
+        <v>1.027188073291826</v>
       </c>
       <c r="F2">
-        <v>0.9649261078457637</v>
+        <v>1.038153356346304</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.039313415707845</v>
+        <v>1.034242005509201</v>
       </c>
       <c r="J2">
-        <v>1.023645219985247</v>
+        <v>1.032199465073358</v>
       </c>
       <c r="K2">
-        <v>1.028399878383094</v>
+        <v>1.03404367325732</v>
       </c>
       <c r="L2">
-        <v>1.019115117806196</v>
+        <v>1.030008531096877</v>
       </c>
       <c r="M2">
-        <v>0.9768967139331004</v>
+        <v>1.040942200810303</v>
       </c>
       <c r="N2">
-        <v>1.025098913611373</v>
+        <v>1.033665306708703</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.00541948557127</v>
+        <v>1.027848129690753</v>
       </c>
       <c r="D3">
-        <v>1.020007551489073</v>
+        <v>1.031834975261162</v>
       </c>
       <c r="E3">
-        <v>1.010841271175919</v>
+        <v>1.027871260608862</v>
       </c>
       <c r="F3">
-        <v>0.9762426172670728</v>
+        <v>1.040298366781818</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.04070029793247</v>
+        <v>1.034463648184063</v>
       </c>
       <c r="J3">
-        <v>1.02576349239034</v>
+        <v>1.032648961335179</v>
       </c>
       <c r="K3">
-        <v>1.03039067554395</v>
+        <v>1.034452761405802</v>
       </c>
       <c r="L3">
-        <v>1.021337290012881</v>
+        <v>1.030499727670097</v>
       </c>
       <c r="M3">
-        <v>0.9871887824047852</v>
+        <v>1.042893641293054</v>
       </c>
       <c r="N3">
-        <v>1.027220194206251</v>
+        <v>1.034115441306766</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.007896218546814</v>
+        <v>1.028371808347861</v>
       </c>
       <c r="D4">
-        <v>1.02180219566072</v>
+        <v>1.032223424316707</v>
       </c>
       <c r="E4">
-        <v>1.01279662335093</v>
+        <v>1.028314021422015</v>
       </c>
       <c r="F4">
-        <v>0.9832546359604462</v>
+        <v>1.041681326512331</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.041562340620281</v>
+        <v>1.034605753672601</v>
       </c>
       <c r="J4">
-        <v>1.027100072504353</v>
+        <v>1.032939513661906</v>
       </c>
       <c r="K4">
-        <v>1.031644420092108</v>
+        <v>1.034716977254562</v>
       </c>
       <c r="L4">
-        <v>1.022743019289298</v>
+        <v>1.030817579836671</v>
       </c>
       <c r="M4">
-        <v>0.9935594544951509</v>
+        <v>1.044151008114646</v>
       </c>
       <c r="N4">
-        <v>1.028558672417335</v>
+        <v>1.034406406251124</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.008925229267999</v>
+        <v>1.028592048155122</v>
       </c>
       <c r="D5">
-        <v>1.022547890336148</v>
+        <v>1.032386776657444</v>
       </c>
       <c r="E5">
-        <v>1.013610277258815</v>
+        <v>1.028500323056785</v>
       </c>
       <c r="F5">
-        <v>0.9861343266047535</v>
+        <v>1.042261553888203</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.041916689570959</v>
+        <v>1.034665181594301</v>
       </c>
       <c r="J5">
-        <v>1.027654161081611</v>
+        <v>1.033061589389469</v>
       </c>
       <c r="K5">
-        <v>1.032163615951157</v>
+        <v>1.034827935896979</v>
       </c>
       <c r="L5">
-        <v>1.023326614831349</v>
+        <v>1.030951208054206</v>
       </c>
       <c r="M5">
-        <v>0.9961741464924616</v>
+        <v>1.044678352718679</v>
       </c>
       <c r="N5">
-        <v>1.029113547863926</v>
+        <v>1.034528655340222</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.009097303668987</v>
+        <v>1.028629032372199</v>
       </c>
       <c r="D6">
-        <v>1.02267259251289</v>
+        <v>1.032414207054509</v>
       </c>
       <c r="E6">
-        <v>1.013746412536362</v>
+        <v>1.028531613569529</v>
       </c>
       <c r="F6">
-        <v>0.9866140066755184</v>
+        <v>1.042358908920885</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.041975725126456</v>
+        <v>1.034675141462013</v>
       </c>
       <c r="J6">
-        <v>1.027746746561707</v>
+        <v>1.033082082184986</v>
       </c>
       <c r="K6">
-        <v>1.032250339144266</v>
+        <v>1.034846559438197</v>
       </c>
       <c r="L6">
-        <v>1.023424179665061</v>
+        <v>1.030973644992032</v>
       </c>
       <c r="M6">
-        <v>0.9966095891221595</v>
+        <v>1.044766823544397</v>
       </c>
       <c r="N6">
-        <v>1.029206264826024</v>
+        <v>1.03454917723786</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.007910015525825</v>
+        <v>1.028374750868556</v>
       </c>
       <c r="D7">
-        <v>1.021812193627301</v>
+        <v>1.032225606849363</v>
       </c>
       <c r="E7">
-        <v>1.012807527869918</v>
+        <v>1.028316510146452</v>
       </c>
       <c r="F7">
-        <v>0.9832933748052802</v>
+        <v>1.041689084096062</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.041567106584774</v>
+        <v>1.034606548981077</v>
       </c>
       <c r="J7">
-        <v>1.02710750651196</v>
+        <v>1.032941145128818</v>
       </c>
       <c r="K7">
-        <v>1.031651388113699</v>
+        <v>1.034718460351927</v>
       </c>
       <c r="L7">
-        <v>1.022750845882289</v>
+        <v>1.030819365371618</v>
       </c>
       <c r="M7">
-        <v>0.9935946348969661</v>
+        <v>1.044158059406887</v>
       </c>
       <c r="N7">
-        <v>1.028566116982085</v>
+        <v>1.034408040034906</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.002842306641626</v>
+        <v>1.027312621263837</v>
       </c>
       <c r="D8">
-        <v>1.018140309938997</v>
+        <v>1.031437700604617</v>
       </c>
       <c r="E8">
-        <v>1.008811050549543</v>
+        <v>1.027418815630837</v>
       </c>
       <c r="F8">
-        <v>0.9688188660360748</v>
+        <v>1.038879326896435</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.039789705569793</v>
+        <v>1.034317182927313</v>
       </c>
       <c r="J8">
-        <v>1.024368379676186</v>
+        <v>1.032351436806666</v>
       </c>
       <c r="K8">
-        <v>1.029080040190835</v>
+        <v>1.034182028279333</v>
       </c>
       <c r="L8">
-        <v>1.019872978765555</v>
+        <v>1.030174529873803</v>
       </c>
       <c r="M8">
-        <v>0.9804384535821002</v>
+        <v>1.041602822679675</v>
       </c>
       <c r="N8">
-        <v>1.025823100272022</v>
+        <v>1.033817494259297</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9934775041296006</v>
+        <v>1.025443786503424</v>
       </c>
       <c r="D9">
-        <v>1.011354905723904</v>
+        <v>1.030050894204425</v>
       </c>
       <c r="E9">
-        <v>1.001469486596366</v>
+        <v>1.025842309018219</v>
       </c>
       <c r="F9">
-        <v>0.9406027526966739</v>
+        <v>1.03388850818231</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.036365185614186</v>
+        <v>1.03379719186911</v>
       </c>
       <c r="J9">
-        <v>1.01926270982008</v>
+        <v>1.031309992310826</v>
       </c>
       <c r="K9">
-        <v>1.024266405163025</v>
+        <v>1.03323300164715</v>
       </c>
       <c r="L9">
-        <v>1.014538767312363</v>
+        <v>1.02903838247585</v>
       </c>
       <c r="M9">
-        <v>0.9547390979203346</v>
+        <v>1.037057989337753</v>
       </c>
       <c r="N9">
-        <v>1.020710179779091</v>
+        <v>1.032774570792816</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.986898518362752</v>
+        <v>1.024199792276826</v>
       </c>
       <c r="D10">
-        <v>1.006584511836033</v>
+        <v>1.02912744817487</v>
       </c>
       <c r="E10">
-        <v>0.9963427596577337</v>
+        <v>1.02479494876841</v>
       </c>
       <c r="F10">
-        <v>0.9193900482361943</v>
+        <v>1.030532748787937</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.033848607109522</v>
+        <v>1.033443685973224</v>
       </c>
       <c r="J10">
-        <v>1.015641762991042</v>
+        <v>1.030614156143487</v>
       </c>
       <c r="K10">
-        <v>1.020835889955326</v>
+        <v>1.032597782623477</v>
       </c>
       <c r="L10">
-        <v>1.010778362171838</v>
+        <v>1.028281065250112</v>
       </c>
       <c r="M10">
-        <v>0.935385075336481</v>
+        <v>1.03399799561269</v>
       </c>
       <c r="N10">
-        <v>1.017084090790228</v>
+        <v>1.032077746458306</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9839582258099397</v>
+        <v>1.023661584204382</v>
       </c>
       <c r="D11">
-        <v>1.004450400501258</v>
+        <v>1.028727849231383</v>
       </c>
       <c r="E11">
-        <v>0.9940590489962845</v>
+        <v>1.024342304368504</v>
       </c>
       <c r="F11">
-        <v>0.9094578288709025</v>
+        <v>1.029072475146902</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.032692584436707</v>
+        <v>1.033288976266557</v>
       </c>
       <c r="J11">
-        <v>1.014013931425903</v>
+        <v>1.030312487119152</v>
       </c>
       <c r="K11">
-        <v>1.01928887399493</v>
+        <v>1.032322122889462</v>
       </c>
       <c r="L11">
-        <v>1.009093879408266</v>
+        <v>1.027953169867739</v>
       </c>
       <c r="M11">
-        <v>0.9263162021638196</v>
+        <v>1.03266545161961</v>
       </c>
       <c r="N11">
-        <v>1.015453947517551</v>
+        <v>1.031775649029355</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9828510780882406</v>
+        <v>1.023461737665005</v>
       </c>
       <c r="D12">
-        <v>1.003646333112458</v>
+        <v>1.028579459616259</v>
       </c>
       <c r="E12">
-        <v>0.993200272899327</v>
+        <v>1.024174303446311</v>
       </c>
       <c r="F12">
-        <v>0.9056361328768244</v>
+        <v>1.028528945022689</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.032252006676737</v>
+        <v>1.033231262609389</v>
       </c>
       <c r="J12">
-        <v>1.013399371013532</v>
+        <v>1.030200378605753</v>
       </c>
       <c r="K12">
-        <v>1.018704006974401</v>
+        <v>1.032219639349856</v>
       </c>
       <c r="L12">
-        <v>1.008458914803996</v>
+        <v>1.027831379392985</v>
       </c>
       <c r="M12">
-        <v>0.9228257805450826</v>
+        <v>1.032169317597962</v>
       </c>
       <c r="N12">
-        <v>1.014838514358903</v>
+        <v>1.031663381309008</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9830892659945897</v>
+        <v>1.023504602347998</v>
       </c>
       <c r="D13">
-        <v>1.00381934239752</v>
+        <v>1.028611287913399</v>
       </c>
       <c r="E13">
-        <v>0.9933849754963112</v>
+        <v>1.024210334258554</v>
       </c>
       <c r="F13">
-        <v>0.9064622778947098</v>
+        <v>1.028645585332038</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.032347040883768</v>
+        <v>1.033243653609569</v>
       </c>
       <c r="J13">
-        <v>1.013531661611673</v>
+        <v>1.030224428761067</v>
       </c>
       <c r="K13">
-        <v>1.018829944503995</v>
+        <v>1.032241626549958</v>
       </c>
       <c r="L13">
-        <v>1.008595551792977</v>
+        <v>1.02785750365692</v>
       </c>
       <c r="M13">
-        <v>0.9235803524526928</v>
+        <v>1.032275793430473</v>
       </c>
       <c r="N13">
-        <v>1.014970992824868</v>
+        <v>1.031687465618301</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9838670224912235</v>
+        <v>1.023645063439967</v>
       </c>
       <c r="D14">
-        <v>1.004384174917346</v>
+        <v>1.028715582497882</v>
       </c>
       <c r="E14">
-        <v>0.9939882825805741</v>
+        <v>1.024328414675995</v>
       </c>
       <c r="F14">
-        <v>0.909144764531469</v>
+        <v>1.029027569828178</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.032656402324439</v>
+        <v>1.033284210695887</v>
       </c>
       <c r="J14">
-        <v>1.01396333982845</v>
+        <v>1.030303221320803</v>
       </c>
       <c r="K14">
-        <v>1.019240744043891</v>
+        <v>1.032313653430876</v>
       </c>
       <c r="L14">
-        <v>1.009041587642076</v>
+        <v>1.027943102536456</v>
       </c>
       <c r="M14">
-        <v>0.9260302928387936</v>
+        <v>1.032624465049578</v>
       </c>
       <c r="N14">
-        <v>1.015403284074227</v>
+        <v>1.03176637007251</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9843441962251597</v>
+        <v>1.023731615162326</v>
       </c>
       <c r="D15">
-        <v>1.004730644950134</v>
+        <v>1.028779847038752</v>
       </c>
       <c r="E15">
-        <v>0.9943585773424209</v>
+        <v>1.024401185346453</v>
       </c>
       <c r="F15">
-        <v>0.9107792868944163</v>
+        <v>1.029262773636501</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.032845487206072</v>
+        <v>1.033309166408807</v>
       </c>
       <c r="J15">
-        <v>1.01422796713006</v>
+        <v>1.030351760701244</v>
       </c>
       <c r="K15">
-        <v>1.019492461426542</v>
+        <v>1.032358019471481</v>
       </c>
       <c r="L15">
-        <v>1.009315148453369</v>
+        <v>1.027995843431162</v>
       </c>
       <c r="M15">
-        <v>0.9275230012810666</v>
+        <v>1.032839137361026</v>
       </c>
       <c r="N15">
-        <v>1.015668287176958</v>
+        <v>1.031814978384439</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9870916266280028</v>
+        <v>1.024235520877743</v>
       </c>
       <c r="D16">
-        <v>1.006724616289323</v>
+        <v>1.029153973727241</v>
       </c>
       <c r="E16">
-        <v>0.9964929035064172</v>
+        <v>1.024825007668659</v>
       </c>
       <c r="F16">
-        <v>0.9200318743022737</v>
+        <v>1.030629507372198</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.033923834048682</v>
+        <v>1.033453918898591</v>
       </c>
       <c r="J16">
-        <v>1.015748461034649</v>
+        <v>1.030634169182465</v>
       </c>
       <c r="K16">
-        <v>1.020937183813547</v>
+        <v>1.032616064470741</v>
       </c>
       <c r="L16">
-        <v>1.010888904808652</v>
+        <v>1.028302827199409</v>
       </c>
       <c r="M16">
-        <v>0.9359709794008588</v>
+        <v>1.034086270277056</v>
       </c>
       <c r="N16">
-        <v>1.017190940357295</v>
+        <v>1.032097787918095</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9887897027540972</v>
+        <v>1.024551728254048</v>
       </c>
       <c r="D17">
-        <v>1.007956355362328</v>
+        <v>1.029388723131685</v>
       </c>
       <c r="E17">
-        <v>0.9978140348998296</v>
+        <v>1.025091093526089</v>
       </c>
       <c r="F17">
-        <v>0.9256231195708408</v>
+        <v>1.031484867985168</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.034581725581402</v>
+        <v>1.033544278514675</v>
       </c>
       <c r="J17">
-        <v>1.016685598471113</v>
+        <v>1.030811218203818</v>
       </c>
       <c r="K17">
-        <v>1.021826304327554</v>
+        <v>1.032777766955242</v>
       </c>
       <c r="L17">
-        <v>1.011860500869521</v>
+        <v>1.028495397691258</v>
       </c>
       <c r="M17">
-        <v>0.9410743061313752</v>
+        <v>1.034866519513109</v>
       </c>
       <c r="N17">
-        <v>1.018129408636411</v>
+        <v>1.032275088369367</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9897714230557279</v>
+        <v>1.024736210029209</v>
       </c>
       <c r="D18">
-        <v>1.008668281758967</v>
+        <v>1.029525673488932</v>
       </c>
       <c r="E18">
-        <v>0.9985785428331948</v>
+        <v>1.02524638075227</v>
       </c>
       <c r="F18">
-        <v>0.9288139306253136</v>
+        <v>1.031983092424815</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.034959158343061</v>
+        <v>1.033596825668775</v>
       </c>
       <c r="J18">
-        <v>1.017226501914224</v>
+        <v>1.030914452459356</v>
       </c>
       <c r="K18">
-        <v>1.022339048266397</v>
+        <v>1.032872026855303</v>
       </c>
       <c r="L18">
-        <v>1.012421857671769</v>
+        <v>1.028607723484214</v>
       </c>
       <c r="M18">
-        <v>0.9439860261041116</v>
+        <v>1.035320899891545</v>
       </c>
       <c r="N18">
-        <v>1.018671080224453</v>
+        <v>1.032378469229389</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9901047160054647</v>
+        <v>1.024799120890694</v>
       </c>
       <c r="D19">
-        <v>1.008909952222336</v>
+        <v>1.029572374253252</v>
       </c>
       <c r="E19">
-        <v>0.9988382130309879</v>
+        <v>1.025299343882507</v>
       </c>
       <c r="F19">
-        <v>0.9298904923740312</v>
+        <v>1.032152857648557</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.035086816114499</v>
+        <v>1.033614716115589</v>
       </c>
       <c r="J19">
-        <v>1.017409991443194</v>
+        <v>1.030949646660626</v>
       </c>
       <c r="K19">
-        <v>1.022512912323064</v>
+        <v>1.032904157142307</v>
       </c>
       <c r="L19">
-        <v>1.012612379322591</v>
+        <v>1.028646024123215</v>
       </c>
       <c r="M19">
-        <v>0.9449683115599288</v>
+        <v>1.0354757097728</v>
       </c>
       <c r="N19">
-        <v>1.018854830329601</v>
+        <v>1.032413713410461</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9886084273611855</v>
+        <v>1.024517797707558</v>
       </c>
       <c r="D20">
-        <v>1.00782488346184</v>
+        <v>1.029363534154337</v>
       </c>
       <c r="E20">
-        <v>0.9976729255242522</v>
+        <v>1.025062536353888</v>
       </c>
       <c r="F20">
-        <v>0.9250306498291079</v>
+        <v>1.031393167823111</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.034511799967444</v>
+        <v>1.033534600143443</v>
       </c>
       <c r="J20">
-        <v>1.01658564934319</v>
+        <v>1.0307922261856</v>
       </c>
       <c r="K20">
-        <v>1.021731523173233</v>
+        <v>1.032760423853766</v>
       </c>
       <c r="L20">
-        <v>1.011756817523818</v>
+        <v>1.028474736420557</v>
       </c>
       <c r="M20">
-        <v>0.9405336047304098</v>
+        <v>1.034782881472216</v>
       </c>
       <c r="N20">
-        <v>1.018029317569261</v>
+        <v>1.032256069380305</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9836384175989362</v>
+        <v>1.023603699272149</v>
       </c>
       <c r="D21">
-        <v>1.004218169330787</v>
+        <v>1.028684869257411</v>
       </c>
       <c r="E21">
-        <v>0.9938109219939515</v>
+        <v>1.024293639304166</v>
       </c>
       <c r="F21">
-        <v>0.9083586848930497</v>
+        <v>1.028915116114729</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.032565622996674</v>
+        <v>1.033272274489901</v>
       </c>
       <c r="J21">
-        <v>1.013836503255039</v>
+        <v>1.030280020399982</v>
       </c>
       <c r="K21">
-        <v>1.0191200654588</v>
+        <v>1.032292445830417</v>
       </c>
       <c r="L21">
-        <v>1.008910504745815</v>
+        <v>1.027917895674503</v>
       </c>
       <c r="M21">
-        <v>0.9253123829798771</v>
+        <v>1.032521822463</v>
       </c>
       <c r="N21">
-        <v>1.015276267378334</v>
+        <v>1.03174313620372</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9804260277915109</v>
+        <v>1.023029362323834</v>
       </c>
       <c r="D22">
-        <v>1.00188401259522</v>
+        <v>1.028258392753692</v>
       </c>
       <c r="E22">
-        <v>0.9913213420572117</v>
+        <v>1.023810963574173</v>
       </c>
       <c r="F22">
-        <v>0.8970956327253957</v>
+        <v>1.027350571139495</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.031276451785516</v>
+        <v>1.033105906832217</v>
       </c>
       <c r="J22">
-        <v>1.012050048411539</v>
+        <v>1.02995765686524</v>
       </c>
       <c r="K22">
-        <v>1.017418238992788</v>
+        <v>1.031997681444312</v>
       </c>
       <c r="L22">
-        <v>1.007066707898249</v>
+        <v>1.02756781377343</v>
       </c>
       <c r="M22">
-        <v>0.9150240417444331</v>
+        <v>1.031093430805237</v>
       </c>
       <c r="N22">
-        <v>1.013487275564046</v>
+        <v>1.031420314875783</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9821377561633909</v>
+        <v>1.02333379184215</v>
       </c>
       <c r="D23">
-        <v>1.003128120489202</v>
+        <v>1.028484454412749</v>
       </c>
       <c r="E23">
-        <v>0.9926472950837867</v>
+        <v>1.024066766800054</v>
       </c>
       <c r="F23">
-        <v>0.9031487184720948</v>
+        <v>1.028180594111939</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.031966570220762</v>
+        <v>1.033194237757805</v>
       </c>
       <c r="J23">
-        <v>1.013002935835406</v>
+        <v>1.030128578162321</v>
       </c>
       <c r="K23">
-        <v>1.018326481147333</v>
+        <v>1.03215399176043</v>
       </c>
       <c r="L23">
-        <v>1.008049605932606</v>
+        <v>1.027753396266891</v>
       </c>
       <c r="M23">
-        <v>0.9205537392328933</v>
+        <v>1.031851301881057</v>
       </c>
       <c r="N23">
-        <v>1.014441516197353</v>
+        <v>1.031591478900711</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9886903648240459</v>
+        <v>1.024533129327482</v>
       </c>
       <c r="D24">
-        <v>1.007884310044862</v>
+        <v>1.029374915892058</v>
       </c>
       <c r="E24">
-        <v>0.9977367055173668</v>
+        <v>1.025075439852111</v>
       </c>
       <c r="F24">
-        <v>0.9252985777013083</v>
+        <v>1.031434605318949</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.034543415736201</v>
+        <v>1.03353897387135</v>
       </c>
       <c r="J24">
-        <v>1.016630829640961</v>
+        <v>1.030800807970918</v>
       </c>
       <c r="K24">
-        <v>1.021774368750346</v>
+        <v>1.032768260635561</v>
       </c>
       <c r="L24">
-        <v>1.011803684064906</v>
+        <v>1.028484072351444</v>
       </c>
       <c r="M24">
-        <v>0.9407781238404341</v>
+        <v>1.03482067614418</v>
       </c>
       <c r="N24">
-        <v>1.018074562028237</v>
+        <v>1.032264663352742</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.995954177893029</v>
+        <v>1.0259265931655</v>
       </c>
       <c r="D25">
-        <v>1.013149695732341</v>
+        <v>1.030409226298304</v>
       </c>
       <c r="E25">
-        <v>1.003405853393294</v>
+        <v>1.026249235035168</v>
       </c>
       <c r="F25">
-        <v>0.9482709325032243</v>
+        <v>1.035183646679164</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.037288556730742</v>
+        <v>1.033932823998092</v>
       </c>
       <c r="J25">
-        <v>1.020618471465628</v>
+        <v>1.031579502639784</v>
       </c>
       <c r="K25">
-        <v>1.025547252419464</v>
+        <v>1.033478794187562</v>
       </c>
       <c r="L25">
-        <v>1.01595152695391</v>
+        <v>1.029332085303442</v>
       </c>
       <c r="M25">
-        <v>0.9617291208279227</v>
+        <v>1.038238114246747</v>
       </c>
       <c r="N25">
-        <v>1.022067866761684</v>
+        <v>1.033044463857355</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_248/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_248/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.02703937269998</v>
+        <v>1.001509566227004</v>
       </c>
       <c r="D2">
-        <v>1.031234967875891</v>
+        <v>1.017174739883621</v>
       </c>
       <c r="E2">
-        <v>1.027188073291826</v>
+        <v>1.00776288315736</v>
       </c>
       <c r="F2">
-        <v>1.038153356346304</v>
+        <v>0.9649261078457638</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.034242005509201</v>
+        <v>1.039313415707845</v>
       </c>
       <c r="J2">
-        <v>1.032199465073358</v>
+        <v>1.023645219985247</v>
       </c>
       <c r="K2">
-        <v>1.03404367325732</v>
+        <v>1.028399878383094</v>
       </c>
       <c r="L2">
-        <v>1.030008531096877</v>
+        <v>1.019115117806197</v>
       </c>
       <c r="M2">
-        <v>1.040942200810303</v>
+        <v>0.9768967139331006</v>
       </c>
       <c r="N2">
-        <v>1.033665306708703</v>
+        <v>1.025098913611373</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.027848129690753</v>
+        <v>1.00541948557127</v>
       </c>
       <c r="D3">
-        <v>1.031834975261162</v>
+        <v>1.020007551489073</v>
       </c>
       <c r="E3">
-        <v>1.027871260608862</v>
+        <v>1.010841271175919</v>
       </c>
       <c r="F3">
-        <v>1.040298366781818</v>
+        <v>0.9762426172670718</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.034463648184063</v>
+        <v>1.04070029793247</v>
       </c>
       <c r="J3">
-        <v>1.032648961335179</v>
+        <v>1.025763492390339</v>
       </c>
       <c r="K3">
-        <v>1.034452761405802</v>
+        <v>1.03039067554395</v>
       </c>
       <c r="L3">
-        <v>1.030499727670097</v>
+        <v>1.021337290012881</v>
       </c>
       <c r="M3">
-        <v>1.042893641293054</v>
+        <v>0.9871887824047844</v>
       </c>
       <c r="N3">
-        <v>1.034115441306766</v>
+        <v>1.027220194206251</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.028371808347861</v>
+        <v>1.007896218546814</v>
       </c>
       <c r="D4">
-        <v>1.032223424316707</v>
+        <v>1.02180219566072</v>
       </c>
       <c r="E4">
-        <v>1.028314021422015</v>
+        <v>1.01279662335093</v>
       </c>
       <c r="F4">
-        <v>1.041681326512331</v>
+        <v>0.983254635960447</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.034605753672601</v>
+        <v>1.041562340620282</v>
       </c>
       <c r="J4">
-        <v>1.032939513661906</v>
+        <v>1.027100072504354</v>
       </c>
       <c r="K4">
-        <v>1.034716977254562</v>
+        <v>1.031644420092108</v>
       </c>
       <c r="L4">
-        <v>1.030817579836671</v>
+        <v>1.022743019289298</v>
       </c>
       <c r="M4">
-        <v>1.044151008114646</v>
+        <v>0.9935594544951517</v>
       </c>
       <c r="N4">
-        <v>1.034406406251124</v>
+        <v>1.028558672417335</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.028592048155122</v>
+        <v>1.008925229267998</v>
       </c>
       <c r="D5">
-        <v>1.032386776657444</v>
+        <v>1.022547890336147</v>
       </c>
       <c r="E5">
-        <v>1.028500323056785</v>
+        <v>1.013610277258814</v>
       </c>
       <c r="F5">
-        <v>1.042261553888203</v>
+        <v>0.9861343266047525</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.034665181594301</v>
+        <v>1.041916689570958</v>
       </c>
       <c r="J5">
-        <v>1.033061589389469</v>
+        <v>1.027654161081609</v>
       </c>
       <c r="K5">
-        <v>1.034827935896979</v>
+        <v>1.032163615951156</v>
       </c>
       <c r="L5">
-        <v>1.030951208054206</v>
+        <v>1.023326614831348</v>
       </c>
       <c r="M5">
-        <v>1.044678352718679</v>
+        <v>0.9961741464924609</v>
       </c>
       <c r="N5">
-        <v>1.034528655340222</v>
+        <v>1.029113547863925</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.028629032372199</v>
+        <v>1.009097303668986</v>
       </c>
       <c r="D6">
-        <v>1.032414207054509</v>
+        <v>1.022672592512889</v>
       </c>
       <c r="E6">
-        <v>1.028531613569529</v>
+        <v>1.013746412536362</v>
       </c>
       <c r="F6">
-        <v>1.042358908920885</v>
+        <v>0.9866140066755175</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.034675141462013</v>
+        <v>1.041975725126455</v>
       </c>
       <c r="J6">
-        <v>1.033082082184986</v>
+        <v>1.027746746561706</v>
       </c>
       <c r="K6">
-        <v>1.034846559438197</v>
+        <v>1.032250339144265</v>
       </c>
       <c r="L6">
-        <v>1.030973644992032</v>
+        <v>1.023424179665061</v>
       </c>
       <c r="M6">
-        <v>1.044766823544397</v>
+        <v>0.9966095891221586</v>
       </c>
       <c r="N6">
-        <v>1.03454917723786</v>
+        <v>1.029206264826023</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.028374750868556</v>
+        <v>1.007910015525825</v>
       </c>
       <c r="D7">
-        <v>1.032225606849363</v>
+        <v>1.0218121936273</v>
       </c>
       <c r="E7">
-        <v>1.028316510146452</v>
+        <v>1.012807527869917</v>
       </c>
       <c r="F7">
-        <v>1.041689084096062</v>
+        <v>0.9832933748052791</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.034606548981077</v>
+        <v>1.041567106584773</v>
       </c>
       <c r="J7">
-        <v>1.032941145128818</v>
+        <v>1.027107506511959</v>
       </c>
       <c r="K7">
-        <v>1.034718460351927</v>
+        <v>1.031651388113698</v>
       </c>
       <c r="L7">
-        <v>1.030819365371618</v>
+        <v>1.022750845882288</v>
       </c>
       <c r="M7">
-        <v>1.044158059406887</v>
+        <v>0.9935946348969649</v>
       </c>
       <c r="N7">
-        <v>1.034408040034906</v>
+        <v>1.028566116982084</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.027312621263837</v>
+        <v>1.002842306641625</v>
       </c>
       <c r="D8">
-        <v>1.031437700604617</v>
+        <v>1.018140309938996</v>
       </c>
       <c r="E8">
-        <v>1.027418815630837</v>
+        <v>1.008811050549542</v>
       </c>
       <c r="F8">
-        <v>1.038879326896435</v>
+        <v>0.9688188660360738</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.034317182927313</v>
+        <v>1.039789705569793</v>
       </c>
       <c r="J8">
-        <v>1.032351436806666</v>
+        <v>1.024368379676185</v>
       </c>
       <c r="K8">
-        <v>1.034182028279333</v>
+        <v>1.029080040190835</v>
       </c>
       <c r="L8">
-        <v>1.030174529873803</v>
+        <v>1.019872978765554</v>
       </c>
       <c r="M8">
-        <v>1.041602822679675</v>
+        <v>0.9804384535820991</v>
       </c>
       <c r="N8">
-        <v>1.033817494259297</v>
+        <v>1.025823100272021</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.025443786503424</v>
+        <v>0.9934775041295997</v>
       </c>
       <c r="D9">
-        <v>1.030050894204425</v>
+        <v>1.011354905723902</v>
       </c>
       <c r="E9">
-        <v>1.025842309018219</v>
+        <v>1.001469486596365</v>
       </c>
       <c r="F9">
-        <v>1.03388850818231</v>
+        <v>0.9406027526966749</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.03379719186911</v>
+        <v>1.036365185614185</v>
       </c>
       <c r="J9">
-        <v>1.031309992310826</v>
+        <v>1.019262709820079</v>
       </c>
       <c r="K9">
-        <v>1.03323300164715</v>
+        <v>1.024266405163024</v>
       </c>
       <c r="L9">
-        <v>1.02903838247585</v>
+        <v>1.014538767312362</v>
       </c>
       <c r="M9">
-        <v>1.037057989337753</v>
+        <v>0.9547390979203355</v>
       </c>
       <c r="N9">
-        <v>1.032774570792816</v>
+        <v>1.02071017977909</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.024199792276826</v>
+        <v>0.9868985183627523</v>
       </c>
       <c r="D10">
-        <v>1.02912744817487</v>
+        <v>1.006584511836033</v>
       </c>
       <c r="E10">
-        <v>1.02479494876841</v>
+        <v>0.9963427596577336</v>
       </c>
       <c r="F10">
-        <v>1.030532748787937</v>
+        <v>0.919390048236195</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.033443685973224</v>
+        <v>1.033848607109522</v>
       </c>
       <c r="J10">
-        <v>1.030614156143487</v>
+        <v>1.015641762991042</v>
       </c>
       <c r="K10">
-        <v>1.032597782623477</v>
+        <v>1.020835889955326</v>
       </c>
       <c r="L10">
-        <v>1.028281065250112</v>
+        <v>1.010778362171838</v>
       </c>
       <c r="M10">
-        <v>1.03399799561269</v>
+        <v>0.9353850753364817</v>
       </c>
       <c r="N10">
-        <v>1.032077746458306</v>
+        <v>1.017084090790228</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.023661584204382</v>
+        <v>0.9839582258099384</v>
       </c>
       <c r="D11">
-        <v>1.028727849231383</v>
+        <v>1.004450400501257</v>
       </c>
       <c r="E11">
-        <v>1.024342304368504</v>
+        <v>0.9940590489962836</v>
       </c>
       <c r="F11">
-        <v>1.029072475146902</v>
+        <v>0.9094578288709013</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.033288976266557</v>
+        <v>1.032692584436706</v>
       </c>
       <c r="J11">
-        <v>1.030312487119152</v>
+        <v>1.014013931425902</v>
       </c>
       <c r="K11">
-        <v>1.032322122889462</v>
+        <v>1.01928887399493</v>
       </c>
       <c r="L11">
-        <v>1.027953169867739</v>
+        <v>1.009093879408265</v>
       </c>
       <c r="M11">
-        <v>1.03266545161961</v>
+        <v>0.9263162021638187</v>
       </c>
       <c r="N11">
-        <v>1.031775649029355</v>
+        <v>1.01545394751755</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.023461737665005</v>
+        <v>0.9828510780882406</v>
       </c>
       <c r="D12">
-        <v>1.028579459616259</v>
+        <v>1.003646333112458</v>
       </c>
       <c r="E12">
-        <v>1.024174303446311</v>
+        <v>0.9932002728993267</v>
       </c>
       <c r="F12">
-        <v>1.028528945022689</v>
+        <v>0.9056361328768243</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.033231262609389</v>
+        <v>1.032252006676736</v>
       </c>
       <c r="J12">
-        <v>1.030200378605753</v>
+        <v>1.013399371013532</v>
       </c>
       <c r="K12">
-        <v>1.032219639349856</v>
+        <v>1.018704006974401</v>
       </c>
       <c r="L12">
-        <v>1.027831379392985</v>
+        <v>1.008458914803996</v>
       </c>
       <c r="M12">
-        <v>1.032169317597962</v>
+        <v>0.9228257805450825</v>
       </c>
       <c r="N12">
-        <v>1.031663381309008</v>
+        <v>1.014838514358903</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.023504602347998</v>
+        <v>0.9830892659945892</v>
       </c>
       <c r="D13">
-        <v>1.028611287913399</v>
+        <v>1.00381934239752</v>
       </c>
       <c r="E13">
-        <v>1.024210334258554</v>
+        <v>0.993384975496311</v>
       </c>
       <c r="F13">
-        <v>1.028645585332038</v>
+        <v>0.9064622778947096</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.033243653609569</v>
+        <v>1.032347040883768</v>
       </c>
       <c r="J13">
-        <v>1.030224428761067</v>
+        <v>1.013531661611673</v>
       </c>
       <c r="K13">
-        <v>1.032241626549958</v>
+        <v>1.018829944503995</v>
       </c>
       <c r="L13">
-        <v>1.02785750365692</v>
+        <v>1.008595551792976</v>
       </c>
       <c r="M13">
-        <v>1.032275793430473</v>
+        <v>0.9235803524526924</v>
       </c>
       <c r="N13">
-        <v>1.031687465618301</v>
+        <v>1.014970992824868</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.023645063439967</v>
+        <v>0.983867022491223</v>
       </c>
       <c r="D14">
-        <v>1.028715582497882</v>
+        <v>1.004384174917346</v>
       </c>
       <c r="E14">
-        <v>1.024328414675995</v>
+        <v>0.9939882825805736</v>
       </c>
       <c r="F14">
-        <v>1.029027569828178</v>
+        <v>0.909144764531468</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.033284210695887</v>
+        <v>1.032656402324439</v>
       </c>
       <c r="J14">
-        <v>1.030303221320803</v>
+        <v>1.013963339828449</v>
       </c>
       <c r="K14">
-        <v>1.032313653430876</v>
+        <v>1.019240744043891</v>
       </c>
       <c r="L14">
-        <v>1.027943102536456</v>
+        <v>1.009041587642076</v>
       </c>
       <c r="M14">
-        <v>1.032624465049578</v>
+        <v>0.9260302928387926</v>
       </c>
       <c r="N14">
-        <v>1.03176637007251</v>
+        <v>1.015403284074226</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.023731615162326</v>
+        <v>0.9843441962251586</v>
       </c>
       <c r="D15">
-        <v>1.028779847038752</v>
+        <v>1.004730644950133</v>
       </c>
       <c r="E15">
-        <v>1.024401185346453</v>
+        <v>0.9943585773424198</v>
       </c>
       <c r="F15">
-        <v>1.029262773636501</v>
+        <v>0.9107792868944151</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.033309166408807</v>
+        <v>1.032845487206071</v>
       </c>
       <c r="J15">
-        <v>1.030351760701244</v>
+        <v>1.014227967130058</v>
       </c>
       <c r="K15">
-        <v>1.032358019471481</v>
+        <v>1.019492461426541</v>
       </c>
       <c r="L15">
-        <v>1.027995843431162</v>
+        <v>1.009315148453368</v>
       </c>
       <c r="M15">
-        <v>1.032839137361026</v>
+        <v>0.9275230012810652</v>
       </c>
       <c r="N15">
-        <v>1.031814978384439</v>
+        <v>1.015668287176957</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.024235520877743</v>
+        <v>0.9870916266280029</v>
       </c>
       <c r="D16">
-        <v>1.029153973727241</v>
+        <v>1.006724616289323</v>
       </c>
       <c r="E16">
-        <v>1.024825007668659</v>
+        <v>0.9964929035064172</v>
       </c>
       <c r="F16">
-        <v>1.030629507372198</v>
+        <v>0.9200318743022712</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.033453918898591</v>
+        <v>1.033923834048682</v>
       </c>
       <c r="J16">
-        <v>1.030634169182465</v>
+        <v>1.015748461034649</v>
       </c>
       <c r="K16">
-        <v>1.032616064470741</v>
+        <v>1.020937183813547</v>
       </c>
       <c r="L16">
-        <v>1.028302827199409</v>
+        <v>1.010888904808652</v>
       </c>
       <c r="M16">
-        <v>1.034086270277056</v>
+        <v>0.9359709794008562</v>
       </c>
       <c r="N16">
-        <v>1.032097787918095</v>
+        <v>1.017190940357295</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.024551728254048</v>
+        <v>0.9887897027540971</v>
       </c>
       <c r="D17">
-        <v>1.029388723131685</v>
+        <v>1.007956355362328</v>
       </c>
       <c r="E17">
-        <v>1.025091093526089</v>
+        <v>0.9978140348998292</v>
       </c>
       <c r="F17">
-        <v>1.031484867985168</v>
+        <v>0.9256231195708416</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.033544278514675</v>
+        <v>1.034581725581402</v>
       </c>
       <c r="J17">
-        <v>1.030811218203818</v>
+        <v>1.016685598471113</v>
       </c>
       <c r="K17">
-        <v>1.032777766955242</v>
+        <v>1.021826304327554</v>
       </c>
       <c r="L17">
-        <v>1.028495397691258</v>
+        <v>1.011860500869521</v>
       </c>
       <c r="M17">
-        <v>1.034866519513109</v>
+        <v>0.9410743061313762</v>
       </c>
       <c r="N17">
-        <v>1.032275088369367</v>
+        <v>1.01812940863641</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.024736210029209</v>
+        <v>0.989771423055727</v>
       </c>
       <c r="D18">
-        <v>1.029525673488932</v>
+        <v>1.008668281758965</v>
       </c>
       <c r="E18">
-        <v>1.02524638075227</v>
+        <v>0.9985785428331939</v>
       </c>
       <c r="F18">
-        <v>1.031983092424815</v>
+        <v>0.9288139306253134</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.033596825668775</v>
+        <v>1.03495915834306</v>
       </c>
       <c r="J18">
-        <v>1.030914452459356</v>
+        <v>1.017226501914223</v>
       </c>
       <c r="K18">
-        <v>1.032872026855303</v>
+        <v>1.022339048266397</v>
       </c>
       <c r="L18">
-        <v>1.028607723484214</v>
+        <v>1.012421857671768</v>
       </c>
       <c r="M18">
-        <v>1.035320899891545</v>
+        <v>0.9439860261041114</v>
       </c>
       <c r="N18">
-        <v>1.032378469229389</v>
+        <v>1.018671080224452</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.024799120890694</v>
+        <v>0.9901047160054642</v>
       </c>
       <c r="D19">
-        <v>1.029572374253252</v>
+        <v>1.008909952222336</v>
       </c>
       <c r="E19">
-        <v>1.025299343882507</v>
+        <v>0.9988382130309874</v>
       </c>
       <c r="F19">
-        <v>1.032152857648557</v>
+        <v>0.9298904923740303</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.033614716115589</v>
+        <v>1.035086816114499</v>
       </c>
       <c r="J19">
-        <v>1.030949646660626</v>
+        <v>1.017409991443194</v>
       </c>
       <c r="K19">
-        <v>1.032904157142307</v>
+        <v>1.022512912323063</v>
       </c>
       <c r="L19">
-        <v>1.028646024123215</v>
+        <v>1.01261237932259</v>
       </c>
       <c r="M19">
-        <v>1.0354757097728</v>
+        <v>0.944968311559928</v>
       </c>
       <c r="N19">
-        <v>1.032413713410461</v>
+        <v>1.0188548303296</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.024517797707558</v>
+        <v>0.9886084273611851</v>
       </c>
       <c r="D20">
-        <v>1.029363534154337</v>
+        <v>1.00782488346184</v>
       </c>
       <c r="E20">
-        <v>1.025062536353888</v>
+        <v>0.9976729255242519</v>
       </c>
       <c r="F20">
-        <v>1.031393167823111</v>
+        <v>0.9250306498291072</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.033534600143443</v>
+        <v>1.034511799967444</v>
       </c>
       <c r="J20">
-        <v>1.0307922261856</v>
+        <v>1.016585649343189</v>
       </c>
       <c r="K20">
-        <v>1.032760423853766</v>
+        <v>1.021731523173232</v>
       </c>
       <c r="L20">
-        <v>1.028474736420557</v>
+        <v>1.011756817523818</v>
       </c>
       <c r="M20">
-        <v>1.034782881472216</v>
+        <v>0.940533604730409</v>
       </c>
       <c r="N20">
-        <v>1.032256069380305</v>
+        <v>1.01802931756926</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.023603699272149</v>
+        <v>0.983638417598936</v>
       </c>
       <c r="D21">
-        <v>1.028684869257411</v>
+        <v>1.004218169330787</v>
       </c>
       <c r="E21">
-        <v>1.024293639304166</v>
+        <v>0.993810921993951</v>
       </c>
       <c r="F21">
-        <v>1.028915116114729</v>
+        <v>0.9083586848930486</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.033272274489901</v>
+        <v>1.032565622996674</v>
       </c>
       <c r="J21">
-        <v>1.030280020399982</v>
+        <v>1.013836503255039</v>
       </c>
       <c r="K21">
-        <v>1.032292445830417</v>
+        <v>1.0191200654588</v>
       </c>
       <c r="L21">
-        <v>1.027917895674503</v>
+        <v>1.008910504745815</v>
       </c>
       <c r="M21">
-        <v>1.032521822463</v>
+        <v>0.9253123829798761</v>
       </c>
       <c r="N21">
-        <v>1.03174313620372</v>
+        <v>1.015276267378333</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.023029362323834</v>
+        <v>0.9804260277915107</v>
       </c>
       <c r="D22">
-        <v>1.028258392753692</v>
+        <v>1.00188401259522</v>
       </c>
       <c r="E22">
-        <v>1.023810963574173</v>
+        <v>0.9913213420572112</v>
       </c>
       <c r="F22">
-        <v>1.027350571139495</v>
+        <v>0.8970956327253959</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.033105906832217</v>
+        <v>1.031276451785516</v>
       </c>
       <c r="J22">
-        <v>1.02995765686524</v>
+        <v>1.012050048411539</v>
       </c>
       <c r="K22">
-        <v>1.031997681444312</v>
+        <v>1.017418238992788</v>
       </c>
       <c r="L22">
-        <v>1.02756781377343</v>
+        <v>1.007066707898249</v>
       </c>
       <c r="M22">
-        <v>1.031093430805237</v>
+        <v>0.9150240417444331</v>
       </c>
       <c r="N22">
-        <v>1.031420314875783</v>
+        <v>1.013487275564046</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.02333379184215</v>
+        <v>0.9821377561633913</v>
       </c>
       <c r="D23">
-        <v>1.028484454412749</v>
+        <v>1.003128120489202</v>
       </c>
       <c r="E23">
-        <v>1.024066766800054</v>
+        <v>0.9926472950837872</v>
       </c>
       <c r="F23">
-        <v>1.028180594111939</v>
+        <v>0.9031487184720947</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.033194237757805</v>
+        <v>1.031966570220762</v>
       </c>
       <c r="J23">
-        <v>1.030128578162321</v>
+        <v>1.013002935835406</v>
       </c>
       <c r="K23">
-        <v>1.03215399176043</v>
+        <v>1.018326481147333</v>
       </c>
       <c r="L23">
-        <v>1.027753396266891</v>
+        <v>1.008049605932607</v>
       </c>
       <c r="M23">
-        <v>1.031851301881057</v>
+        <v>0.9205537392328933</v>
       </c>
       <c r="N23">
-        <v>1.031591478900711</v>
+        <v>1.014441516197354</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.024533129327482</v>
+        <v>0.9886903648240462</v>
       </c>
       <c r="D24">
-        <v>1.029374915892058</v>
+        <v>1.007884310044862</v>
       </c>
       <c r="E24">
-        <v>1.025075439852111</v>
+        <v>0.9977367055173669</v>
       </c>
       <c r="F24">
-        <v>1.031434605318949</v>
+        <v>0.9252985777013089</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.03353897387135</v>
+        <v>1.034543415736201</v>
       </c>
       <c r="J24">
-        <v>1.030800807970918</v>
+        <v>1.016630829640961</v>
       </c>
       <c r="K24">
-        <v>1.032768260635561</v>
+        <v>1.021774368750346</v>
       </c>
       <c r="L24">
-        <v>1.028484072351444</v>
+        <v>1.011803684064906</v>
       </c>
       <c r="M24">
-        <v>1.03482067614418</v>
+        <v>0.9407781238404345</v>
       </c>
       <c r="N24">
-        <v>1.032264663352742</v>
+        <v>1.018074562028237</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.0259265931655</v>
+        <v>0.9959541778930284</v>
       </c>
       <c r="D25">
-        <v>1.030409226298304</v>
+        <v>1.01314969573234</v>
       </c>
       <c r="E25">
-        <v>1.026249235035168</v>
+        <v>1.003405853393294</v>
       </c>
       <c r="F25">
-        <v>1.035183646679164</v>
+        <v>0.9482709325032239</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.033932823998092</v>
+        <v>1.037288556730742</v>
       </c>
       <c r="J25">
-        <v>1.031579502639784</v>
+        <v>1.020618471465627</v>
       </c>
       <c r="K25">
-        <v>1.033478794187562</v>
+        <v>1.025547252419463</v>
       </c>
       <c r="L25">
-        <v>1.029332085303442</v>
+        <v>1.01595152695391</v>
       </c>
       <c r="M25">
-        <v>1.038238114246747</v>
+        <v>0.9617291208279223</v>
       </c>
       <c r="N25">
-        <v>1.033044463857355</v>
+        <v>1.022067866761683</v>
       </c>
     </row>
   </sheetData>
